--- a/aichan/507087899381332621_2021-03-28_20-00-02.xlsx
+++ b/aichan/507087899381332621_2021-03-28_20-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:50:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95185185185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -603,10 +617,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:53:36</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44328.99555555556</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:43:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44328.98825231481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -761,10 +771,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:42:18</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44328.98770833333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -840,10 +848,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:41:27</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44328.98711805556</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -919,10 +925,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:40:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44328.98675925926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +1002,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:39:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44328.98564814815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:33:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44328.98182870371</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1144,10 +1144,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-05-12 23:32:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44328.98121527778</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1223,10 +1221,8 @@
           <t>4554545320</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-05-12 21:43:45</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44328.90538194445</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1298,10 +1294,8 @@
           <t>4554553813</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-05-12 20:34:35</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44328.85734953704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1377,10 +1371,8 @@
           <t>4554544709</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-05-12 20:32:33</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44328.8559375</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1464,10 +1456,8 @@
           <t>4554550057</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-05-12 20:32:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44328.85586805556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1543,10 +1533,8 @@
           <t>4327939573</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-05-12 20:32:07</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44328.85563657407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1622,10 +1610,8 @@
           <t>4328204922</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-05-12 20:29:13</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44328.85362268519</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1703,10 +1689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:46:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44327.82402777778</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1782,10 +1766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-05-09 16:36:16</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44325.69185185185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1854,10 +1836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:27:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44325.39383101852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1917,10 +1897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-05-04 00:01:43</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44320.00119212963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1992,10 +1970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-30 13:46:04</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44316.57365740741</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2055,10 +2031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:36:59</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44315.69234953704</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2137,10 +2111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-27 08:19:41</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44313.34700231482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2204,10 +2176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-26 16:03:35</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44312.66915509259</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2278,10 +2248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-25 22:57:31</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44311.9566087963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2343,10 +2311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-25 16:09:02</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44311.67293981482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2414,10 +2380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-24 23:45:37</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44310.99001157407</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2498,10 +2462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:35:16</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44310.48282407408</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2561,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-23 18:18:49</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44309.76306712963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2628,10 +2588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-22 18:25:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44308.76751157407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2703,10 +2661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-22 17:48:26</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44308.74196759259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2781,10 +2737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-22 13:36:03</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44308.56670138889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2861,10 +2815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:53:52</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44308.45407407408</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2937,10 +2889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:08:17</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44307.46408564815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3008,10 +2958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-20 16:08:51</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44306.6728125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3088,10 +3036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:04:16</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44306.50296296296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3164,10 +3110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-19 22:49:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44305.95083333334</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3237,10 +3181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-19 19:03:21</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44305.79399305556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3318,10 +3260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:26:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44305.01817129629</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3402,10 +3342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:42:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44304.94615740741</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3473,10 +3411,8 @@
           <t>4434246221</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:20:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44304.93118055556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3544,10 +3480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-18 21:45:04</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44304.9062962963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3611,10 +3545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:43:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44303.94695601852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3690,10 +3622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-16 09:12:13</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44302.38348379629</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3753,10 +3683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:14:34</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44302.09344907408</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3828,10 +3756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-13 20:19:00</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44299.84652777778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3923,10 +3849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:43:30</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44298.03020833333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4009,10 +3933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:44:24</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44297.65583333333</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4094,10 +4016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:21:22</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44296.80650462963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4179,10 +4099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:19:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44296.80506944445</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4252,10 +4170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:27:13</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44296.68556712963</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4330,10 +4246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-10 08:13:48</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44296.34291666667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4408,10 +4322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-10 00:04:41</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44296.00325231482</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4475,10 +4387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-09 23:04:08</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44295.9612037037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4540,10 +4450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-09 11:36:11</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44295.48346064815</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4613,10 +4521,8 @@
           <t>4386562775</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-09 11:36:05</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44295.48339120371</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4686,10 +4592,8 @@
           <t>4386559274</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-09 11:36:01</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44295.48334490741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4768,10 +4672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-09 08:45:52</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44295.36518518518</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4859,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-09 07:59:04</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44295.33268518518</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4934,10 +4834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-09 01:43:33</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44295.07190972222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5012,10 +4910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-09 00:14:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44295.00974537037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5104,10 +5000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-08 21:19:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44294.88854166667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5174,10 +5068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-08 19:49:37</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44294.82612268518</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5270,10 +5162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-08 12:44:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44294.53101851852</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5337,10 +5227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-08 11:09:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44294.46481481481</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5411,10 +5299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:39:29</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44294.31908564815</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5480,10 +5366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-08 02:20:00</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44294.09722222222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5547,10 +5431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:16:20</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44293.96967592592</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5643,10 +5525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:16:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44293.96961805555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5739,10 +5619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:16:12</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44293.96958333333</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5835,10 +5713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:16:03</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44293.96947916667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5914,10 +5790,8 @@
           <t>4377372106</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-07 11:31:51</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44293.48045138889</v>
       </c>
       <c r="I72" t="n">
         <v>4</v>
@@ -5996,10 +5870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:28:40</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44293.0199074074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6063,10 +5935,8 @@
           <t>4374157938</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-06 17:40:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44292.73630787037</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6144,10 +6014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-06 14:31:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44292.60488425926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6215,10 +6083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-06 07:44:40</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44292.32268518519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6294,10 +6160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-06 07:03:41</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44292.29422453704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6370,10 +6234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-05 21:11:55</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44291.88327546296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6452,10 +6314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-05 20:17:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44291.84523148148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6531,10 +6391,8 @@
           <t>4369925574</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-05 18:36:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44291.77528935186</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6607,10 +6465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-05 17:47:59</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44291.74165509259</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6675,10 +6531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-05 17:23:37</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44291.7247337963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6750,10 +6604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-05 14:56:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44291.62234953704</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6826,10 +6678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-05 13:00:30</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44291.54201388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6889,10 +6739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-05 11:58:33</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44291.49899305555</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6956,10 +6804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-05 10:51:39</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44291.45253472222</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7031,10 +6877,8 @@
           <t>4328808709</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:54:27</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44290.87114583333</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7106,10 +6950,8 @@
           <t>4328808709</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:44:56</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44290.86453703704</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7185,10 +7027,8 @@
           <t>4328808709</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:43:31</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44290.86355324074</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7272,10 +7112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:16:01</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44290.59445601852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7349,10 +7187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:02:20</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44290.58495370371</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7429,10 +7265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-04 12:29:59</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44290.52082175926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7501,10 +7335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-04 02:06:32</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44290.08787037037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7576,10 +7408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-04 02:06:25</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44290.08778935186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7650,10 +7480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-04 02:06:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44290.08768518519</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -7717,10 +7545,8 @@
           <t>4359894762</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-03 21:32:38</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44289.89766203704</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7795,10 +7621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-03 15:26:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44289.64314814815</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7862,10 +7686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-03 14:40:11</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44289.61123842592</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7929,10 +7751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-03 12:08:27</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44289.50586805555</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -8009,10 +7829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-03 02:03:27</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44289.08572916667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8072,10 +7890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-03 00:16:23</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44289.01137731481</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8139,10 +7955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-02 23:30:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44288.9794212963</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8211,10 +8025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:18:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44288.92952546296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8275,10 +8087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:18:23</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44288.92943287037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8338,10 +8148,8 @@
           <t>4354727043</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:09:38</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44288.92335648148</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8413,10 +8221,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:06:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44288.92100694445</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8488,10 +8294,8 @@
           <t>4354706750</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:05:19</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44288.9203587963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8563,10 +8367,8 @@
           <t>4354692804</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:03:06</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44288.91881944444</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8638,10 +8440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:00:29</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44288.91700231482</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8714,10 +8514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-02 19:11:59</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44288.79998842593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8786,10 +8584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:14:18</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44288.55159722222</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8864,10 +8660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:24:40</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44287.76712962963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8935,10 +8729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-01 15:19:09</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44287.63829861111</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -9006,10 +8798,8 @@
           <t>4347718359</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-01 14:57:52</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44287.62351851852</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -9085,10 +8875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-01 13:04:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44287.54447916667</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9164,10 +8952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-01 02:54:36</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44287.12125</v>
       </c>
       <c r="I116" t="n">
         <v>35</v>
@@ -9243,10 +9029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:29:15</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44286.8953125</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9318,10 +9102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:10:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44286.88239583333</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9403,10 +9185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:40:23</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44286.86137731482</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9476,10 +9256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:18:33</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44286.84621527778</v>
       </c>
       <c r="I120" t="n">
         <v>21</v>
@@ -9551,10 +9329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:19:16</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44286.80504629629</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9626,10 +9402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-31 11:02:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44286.46009259259</v>
       </c>
       <c r="I122" t="n">
         <v>6</v>
@@ -9693,10 +9467,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-31 05:29:27</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44286.22878472223</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9756,10 +9528,8 @@
           <t>4340835569</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-31 05:25:01</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44286.22570601852</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9820,10 +9590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-30 21:56:58</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44285.91456018519</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9891,10 +9659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-30 10:42:54</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44285.44645833333</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9955,10 +9721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:39:22</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44285.02733796297</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -10041,10 +9805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-30 00:15:21</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44285.01065972223</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -10125,10 +9887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:40:37</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44284.77820601852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10192,10 +9952,8 @@
           <t>4334043985</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:33:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44284.77346064815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10263,10 +10021,8 @@
           <t>4330047443</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:24:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44284.64206018519</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10339,10 +10095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-29 14:23:48</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44284.59986111111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10411,10 +10165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:37:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44284.52630787037</v>
       </c>
       <c r="I133" t="n">
         <v>36</v>
@@ -10482,10 +10234,8 @@
           <t>4332531619</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:28:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44284.47835648148</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10563,10 +10313,8 @@
           <t>4332528087</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:28:19</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44284.47799768519</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10644,10 +10392,8 @@
           <t>4332523081</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:26:04</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44284.47643518518</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10725,10 +10471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:25:07</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44284.47577546296</v>
       </c>
       <c r="I137" t="n">
         <v>9</v>
@@ -10806,10 +10550,8 @@
           <t>4331990080</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:50:32</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44284.32675925926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10885,10 +10627,8 @@
           <t>4331772297</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-29 03:20:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44284.13928240741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10964,10 +10704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-29 01:34:57</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44284.0659375</v>
       </c>
       <c r="I140" t="n">
         <v>127</v>
@@ -11043,10 +10781,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:05:29</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44284.00380787037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11118,10 +10854,8 @@
           <t>4329273753</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:45:54</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44283.906875</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -11185,10 +10919,8 @@
           <t>4330054632</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:24:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44283.89184027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11248,10 +10980,8 @@
           <t>4330435165</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:16:07</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44283.88619212963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11311,10 +11041,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:11:54</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44283.88326388889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11378,10 +11106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:06:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44283.87947916667</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11457,10 +11183,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:02:35</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44283.87679398148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11532,10 +11256,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:58:16</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44283.8737962963</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11608,10 +11330,8 @@
           <t>4330137452</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:14:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44283.84333333333</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11687,10 +11407,8 @@
           <t>4330047443</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:13:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44283.84289351852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11758,10 +11476,8 @@
           <t>4330054632</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:56:57</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44283.83121527778</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11825,10 +11541,8 @@
           <t>4330047443</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:55:16</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44283.83004629629</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11900,10 +11614,8 @@
           <t>4328033699</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:52:08</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44283.82787037037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11967,10 +11679,8 @@
           <t>4329273753</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:32:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44283.81418981482</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -12030,10 +11740,8 @@
           <t>4329907072</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:24:14</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44283.80849537037</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -12101,10 +11809,8 @@
           <t>4329278315</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:55:14</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44283.78835648148</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12168,10 +11874,8 @@
           <t>4329747254</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:49:46</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44283.78456018519</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12235,10 +11939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:46:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44283.78201388889</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12302,10 +12004,8 @@
           <t>4328030117</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:42:59</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44283.77984953704</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12369,10 +12069,8 @@
           <t>4328485303</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:32:36</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44283.77263888889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12440,10 +12138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:23:35</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44283.76637731482</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12507,10 +12203,8 @@
           <t>4329273753</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:21:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44283.76491898148</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12578,10 +12272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:14:48</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44283.76027777778</v>
       </c>
       <c r="I163" t="n">
         <v>7</v>
@@ -12657,10 +12349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:11:08</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44283.75773148148</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12724,10 +12414,8 @@
           <t>4329544191</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:07:53</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44283.75547453704</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12791,10 +12479,8 @@
           <t>4329548106</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:07:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44283.75524305556</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12866,10 +12552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:07:22</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44283.75511574074</v>
       </c>
       <c r="I167" t="n">
         <v>4</v>
@@ -12933,10 +12617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:01:13</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44283.75084490741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -13012,10 +12694,8 @@
           <t>4329492583</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:55:14</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44283.74668981481</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -13087,10 +12767,8 @@
           <t>4329465193</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:49:16</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44283.74254629629</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13162,10 +12840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:41:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44283.73703703703</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13229,10 +12905,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:40:19</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44283.73633101852</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13296,10 +12970,8 @@
           <t>4329418565</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:38:57</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44283.73538194445</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13363,10 +13035,8 @@
           <t>4329374726</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:29:23</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44283.72873842593</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13442,10 +13112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:24:09</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44283.72510416667</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13513,10 +13181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:20:34</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44283.72261574074</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13588,10 +13254,8 @@
           <t>4329317921</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:17:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44283.72017361111</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13663,10 +13327,8 @@
           <t>4328841742</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:09:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44283.71481481481</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13742,10 +13404,8 @@
           <t>4329278315</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:08:29</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44283.71422453703</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13821,10 +13481,8 @@
           <t>4329278315</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:07:30</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44283.71354166666</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13888,10 +13546,8 @@
           <t>4329278186</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:07:24</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44283.71347222223</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13955,10 +13611,8 @@
           <t>4329283100</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:07:17</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44283.7133912037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -14022,10 +13676,8 @@
           <t>4329273753</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:07:09</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44283.71329861111</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14089,10 +13741,8 @@
           <t>4328015872</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:55:42</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44283.70534722223</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14164,10 +13814,8 @@
           <t>4328630250</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:55:16</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44283.70504629629</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14246,10 +13894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:47:54</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44283.69993055556</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -14317,10 +13963,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:46:23</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44283.69887731481</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14388,10 +14032,8 @@
           <t>4329166965</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:40:57</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44283.69510416667</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14463,10 +14105,8 @@
           <t>4329124664</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:32:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44283.68888888889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14538,10 +14178,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44283.68858796296</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14605,10 +14243,8 @@
           <t>4329125924</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:30:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44283.68760416667</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14680,10 +14316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:16</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44283.68699074074</v>
       </c>
       <c r="I192" t="n">
         <v>21</v>
@@ -14759,10 +14393,8 @@
           <t>4329110640</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:26:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44283.68494212963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14830,10 +14462,8 @@
           <t>4328841742</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:12:18</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44283.67520833333</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14909,10 +14539,8 @@
           <t>4329037536</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:09:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44283.67326388889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14976,10 +14604,8 @@
           <t>4328986033</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:56:46</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44283.66442129629</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -15047,10 +14673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:53:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44283.66245370371</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15118,10 +14742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:50:18</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44283.65993055556</v>
       </c>
       <c r="I198" t="n">
         <v>13</v>
@@ -15185,10 +14807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:42</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44283.65951388889</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15260,10 +14880,8 @@
           <t>4328861035</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:29</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44283.64269675926</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15339,10 +14957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:06</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44283.63965277778</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15406,10 +15022,8 @@
           <t>4328841742</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:20:19</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44283.6391087963</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15485,10 +15099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:19:11</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44283.63832175926</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15564,10 +15176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:18:09</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44283.63760416667</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15639,10 +15249,8 @@
           <t>4328485303</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:16:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44283.63670138889</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15715,10 +15323,8 @@
           <t>4328821026</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44283.63579861111</v>
       </c>
       <c r="I206" t="n">
         <v>15</v>
@@ -15786,10 +15392,8 @@
           <t>4328485303</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:33</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44283.63579861111</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15861,10 +15465,8 @@
           <t>4328817660</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:27</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44283.63572916666</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15936,10 +15538,8 @@
           <t>4328808709</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:13:45</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44283.63454861111</v>
       </c>
       <c r="I209" t="n">
         <v>16</v>
@@ -16015,10 +15615,8 @@
           <t>4328807972</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:13:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44283.63417824074</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16086,10 +15684,8 @@
           <t>4328764292</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:02:57</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44283.62704861111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16157,10 +15753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:00:51</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44283.62559027778</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -16232,10 +15826,8 @@
           <t>4328734541</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44283.62189814815</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16307,10 +15899,8 @@
           <t>4328733728</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:54</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44283.62145833333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16382,10 +15972,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:00</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44283.62083333333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16449,10 +16037,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:53:51</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44283.62072916667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16516,10 +16102,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:49:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44283.61775462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16583,10 +16167,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:47:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44283.61621527778</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16651,10 +16233,8 @@
           <t>4328271749</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:35:19</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44283.6078587963</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16722,10 +16302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:34:16</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44283.60712962963</v>
       </c>
       <c r="I220" t="n">
         <v>24</v>
@@ -16793,10 +16371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:30:14</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44283.6043287037</v>
       </c>
       <c r="I221" t="n">
         <v>63</v>
@@ -16873,10 +16449,8 @@
           <t>4328634805</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:29:23</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44283.60373842593</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16944,10 +16518,8 @@
           <t>4328635978</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:29:09</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44283.60357638889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -17019,10 +16591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:26:09</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44283.60149305555</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17086,10 +16656,8 @@
           <t>4328630250</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:26:00</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44283.60138888889</v>
       </c>
       <c r="I225" t="n">
         <v>32</v>
@@ -17153,10 +16721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:24:16</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44283.60018518518</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17221,10 +16787,8 @@
           <t>4328607382</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:22:52</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44283.59921296296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17292,10 +16856,8 @@
           <t>4328603114</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:20:54</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44283.59784722222</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17363,10 +16925,8 @@
           <t>4328094972</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:20:27</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44283.59753472222</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17434,10 +16994,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:15:30</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44283.59409722222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17509,10 +17067,8 @@
           <t>4328569016</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:14:14</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44283.59321759259</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17584,10 +17140,8 @@
           <t>4328560412</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:10:43</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44283.59077546297</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17659,10 +17213,8 @@
           <t>4328558545</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:10:21</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44283.59052083334</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17734,10 +17286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:08:20</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44283.58912037037</v>
       </c>
       <c r="I234" t="n">
         <v>36</v>
@@ -17805,10 +17355,8 @@
           <t>4328537645</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:06:00</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44283.5875</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17876,10 +17424,8 @@
           <t>4328271749</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:05:07</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44283.58688657408</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17955,10 +17501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:04:51</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44283.58670138889</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18035,10 +17579,8 @@
           <t>4328529089</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:03:32</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44283.58578703704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18106,10 +17648,8 @@
           <t>4328015872</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:03:20</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44283.58564814815</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18185,10 +17725,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:03:03</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44283.58545138889</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18252,10 +17790,8 @@
           <t>4328503407</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:59:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44283.58292824074</v>
       </c>
       <c r="I241" t="n">
         <v>5</v>
@@ -18331,10 +17867,8 @@
           <t>4328503407</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:58:58</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44283.58261574074</v>
       </c>
       <c r="I242" t="n">
         <v>8</v>
@@ -18398,10 +17932,8 @@
           <t>4328510941</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:51</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44283.58184027778</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18480,10 +18012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:57:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44283.58146990741</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18552,10 +18082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:55:25</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44283.58015046296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18615,10 +18143,8 @@
           <t>4328485303</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:53:20</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44283.5787037037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18688,10 +18214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:52:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44283.57842592592</v>
       </c>
       <c r="I247" t="n">
         <v>85</v>
@@ -18767,10 +18291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:52:51</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44283.57836805555</v>
       </c>
       <c r="I248" t="n">
         <v>7</v>
@@ -18838,10 +18360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:50:58</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44283.57706018518</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18909,10 +18429,8 @@
           <t>4328271749</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:49:45</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44283.57621527778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18984,10 +18502,8 @@
           <t>4328454885</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:46:46</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44283.57414351852</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19055,10 +18571,8 @@
           <t>4328454120</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:46:15</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44283.57378472222</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19130,10 +18644,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:45:31</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44283.57327546296</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19205,10 +18717,8 @@
           <t>4328094972</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:44:11</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44283.57234953704</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19284,10 +18794,8 @@
           <t>4328445952</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:43:57</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44283.5721875</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19359,10 +18867,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:43:29</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44283.57186342592</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19430,10 +18936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:42:50</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44283.57141203704</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19505,10 +19009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:42:15</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44283.57100694445</v>
       </c>
       <c r="I258" t="n">
         <v>11</v>
@@ -19584,10 +19086,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:39:04</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44283.5687962963</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19663,10 +19163,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:36:03</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44283.56670138889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19738,10 +19236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:50</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44283.56446759259</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19813,10 +19309,8 @@
           <t>4328336761</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:42</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44283.564375</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19892,10 +19386,8 @@
           <t>4328306073</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:31:36</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44283.56361111111</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19959,10 +19451,8 @@
           <t>4328381171</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:30:42</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44283.56298611111</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20034,10 +19524,8 @@
           <t>4328378505</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:29:19</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44283.56202546296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20113,10 +19601,8 @@
           <t>4328373959</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:29:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44283.56202546296</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20184,10 +19670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:28:28</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44283.56143518518</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20247,10 +19731,8 @@
           <t>4328306073</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:27:36</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44283.56083333334</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20314,10 +19796,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:25:12</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44283.55916666667</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20381,10 +19861,8 @@
           <t>4328350681</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:23:53</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44283.55825231481</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20452,10 +19930,8 @@
           <t>4328306073</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:03</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44283.55697916666</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20519,10 +19995,8 @@
           <t>4328341527</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:21:25</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44283.55653935186</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20598,10 +20072,8 @@
           <t>4328336761</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:21:22</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44283.55650462963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20665,10 +20137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:20:53</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44283.55616898148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20740,10 +20210,8 @@
           <t>4328306073</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:20:09</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44283.55565972222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20807,10 +20275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:19:44</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44283.55537037037</v>
       </c>
       <c r="I276" t="n">
         <v>4</v>
@@ -20877,10 +20343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:18:45</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44283.5546875</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20950,10 +20414,8 @@
           <t>4328321737</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:18:13</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44283.55431712963</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -21020,10 +20482,8 @@
           <t>4328246607</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:17:19</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44283.55369212963</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -21090,10 +20550,8 @@
           <t>4328094972</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:34</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44283.55247685185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21153,10 +20611,8 @@
           <t>4328271749</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44283.55239583334</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21220,10 +20676,8 @@
           <t>4328306073</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:14:41</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44283.55186342593</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21287,10 +20741,8 @@
           <t>4328310328</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:14:38</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44283.5518287037</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21358,10 +20810,8 @@
           <t>4328020144</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:32</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44283.55106481481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21425,10 +20875,8 @@
           <t>4328297312</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:48</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44283.55055555556</v>
       </c>
       <c r="I285" t="n">
         <v>9</v>
@@ -21488,10 +20936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:16</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44283.54949074074</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21555,10 +21001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:09:29</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44283.54825231482</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21626,10 +21070,8 @@
           <t>4328285356</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44283.54780092592</v>
       </c>
       <c r="I288" t="n">
         <v>4</v>
@@ -21693,10 +21135,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:40</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44283.54768518519</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21764,10 +21204,8 @@
           <t>4328271749</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:39</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44283.54628472222</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21843,10 +21281,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:50</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44283.54502314814</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21918,10 +21354,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:07</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44283.54452546296</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21993,10 +21427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:51</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44283.54434027777</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22068,10 +21500,8 @@
           <t>4328246607</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:44</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44283.54356481481</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -22139,10 +21569,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:21</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44283.54329861111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22221,10 +21649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:15</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44283.54253472222</v>
       </c>
       <c r="I296" t="n">
         <v>6</v>
@@ -22300,10 +21726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:59:36</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44283.54138888889</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22363,10 +21787,8 @@
           <t>4328171321</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:57:17</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44283.53978009259</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22442,10 +21864,8 @@
           <t>4328204922</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:55:47</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44283.53873842592</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22513,10 +21933,8 @@
           <t>4328207307</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:55:07</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44283.53827546296</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22580,10 +21998,8 @@
           <t>4328203608</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:55:00</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44283.53819444445</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22651,10 +22067,8 @@
           <t>4328211766</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:54:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44283.53815972222</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22741,10 +22155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:54:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44283.53771990741</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22808,10 +22220,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:53:44</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44283.53731481481</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22875,10 +22285,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:52:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44283.53651620371</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22950,10 +22358,8 @@
           <t>4328171321</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:52:06</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44283.53618055556</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23025,10 +22431,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:51:55</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44283.53605324074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23096,10 +22500,8 @@
           <t>4328095151</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:51:28</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44283.53574074074</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23171,10 +22573,8 @@
           <t>4328030117</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:51</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44283.53461805556</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23242,10 +22642,8 @@
           <t>4328176822</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:02</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44283.53405092593</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23305,10 +22703,8 @@
           <t>4328171321</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:47:45</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44283.53315972222</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23384,10 +22780,8 @@
           <t>4327985078</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:09</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44283.53204861111</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23461,10 +22855,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:42</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44283.53173611111</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23528,10 +22920,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44283.53135416667</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23595,10 +22985,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:46</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44283.53108796296</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23662,10 +23050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:01</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44283.53056712963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23729,10 +23115,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:26</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44283.53016203704</v>
       </c>
       <c r="I317" t="n">
         <v>6</v>
@@ -23804,10 +23188,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:41:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44283.5290625</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23875,10 +23257,8 @@
           <t>4328095151</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:40</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44283.52824074074</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23946,10 +23326,8 @@
           <t>4328094972</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:12</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44283.52791666667</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -24017,10 +23395,8 @@
           <t>4328131016</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:03</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44283.5278125</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24084,10 +23460,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:37</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44283.52751157407</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24155,10 +23529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:38:46</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44283.5269212963</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24218,10 +23590,8 @@
           <t>4328117358</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:37:59</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44283.52637731482</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24289,10 +23659,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:37:46</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44283.52622685185</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24357,10 +23725,8 @@
           <t>4328071354</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:36:23</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44283.5252662037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24436,10 +23802,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:49</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44283.52487268519</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24503,10 +23867,8 @@
           <t>4328074866</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44283.52473379629</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24570,10 +23932,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:16</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44283.52449074074</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24641,10 +24001,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:10</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44283.52442129629</v>
       </c>
       <c r="I330" t="n">
         <v>4</v>
@@ -24708,10 +24066,8 @@
           <t>4328101026</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44283.52392361111</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24787,10 +24143,8 @@
           <t>4328094972</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:02</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44283.52363425926</v>
       </c>
       <c r="I332" t="n">
         <v>4</v>
@@ -24850,10 +24204,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:57</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44283.52357638889</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24921,10 +24273,8 @@
           <t>4328094703</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:53</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44283.52353009259</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24996,10 +24346,8 @@
           <t>4328097125</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:39</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44283.52336805555</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25071,10 +24419,8 @@
           <t>4328071354</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:09</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44283.52302083333</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25146,10 +24492,8 @@
           <t>4328033699</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44283.52289351852</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25225,10 +24569,8 @@
           <t>4328095151</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:33</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44283.52260416667</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25300,10 +24642,8 @@
           <t>4328084879</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:24</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44283.5225</v>
       </c>
       <c r="I339" t="n">
         <v>3</v>
@@ -25379,10 +24719,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:57</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44283.5221875</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25447,10 +24785,8 @@
           <t>4328091130</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:53</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44283.52214120371</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25522,10 +24858,8 @@
           <t>4328033699</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:46</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44283.52206018518</v>
       </c>
       <c r="I342" t="n">
         <v>6</v>
@@ -25586,10 +24920,8 @@
           <t>4328074866</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:58</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44283.52150462963</v>
       </c>
       <c r="I343" t="n">
         <v>6</v>
@@ -25661,10 +24993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:35</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44283.52123842593</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25740,10 +25070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44283.52096064815</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25811,10 +25139,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:59</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44283.52082175926</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25879,10 +25205,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:33</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44283.52052083334</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25947,10 +25271,8 @@
           <t>4328071354</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:00</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44283.52013888889</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26026,10 +25348,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:21</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44283.5196875</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26094,10 +25414,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:42</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44283.51923611111</v>
       </c>
       <c r="I350" t="n">
         <v>4</v>
@@ -26161,10 +25479,8 @@
           <t>4328063258</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:30</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44283.51909722222</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26228,10 +25544,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:08</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44283.5188425926</v>
       </c>
       <c r="I352" t="n">
         <v>6</v>
@@ -26303,10 +25617,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:03</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44283.51878472222</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26374,10 +25686,8 @@
           <t>4328062239</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:55</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44283.51869212963</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26453,10 +25763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:48</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44283.51861111111</v>
       </c>
       <c r="I355" t="n">
         <v>4</v>
@@ -26520,10 +25828,8 @@
           <t>4328044603</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:14</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44283.51752314815</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26595,10 +25901,8 @@
           <t>4328039247</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:18</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44283.51618055555</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26670,10 +25974,8 @@
           <t>4327985078</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:03</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44283.51600694445</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26741,10 +26043,8 @@
           <t>4327985078</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:39</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44283.51572916667</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26820,10 +26120,8 @@
           <t>4328015872</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:37</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44283.51570601852</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26901,10 +26199,8 @@
           <t>4328033699</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:04</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44283.51532407408</v>
       </c>
       <c r="I361" t="n">
         <v>18</v>
@@ -26980,10 +26276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:24</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44283.51486111111</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27051,10 +26345,8 @@
           <t>4328030117</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:59</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44283.51387731481</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27130,10 +26422,8 @@
           <t>4328014619</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:35</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44283.51359953704</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27205,10 +26495,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:23</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44283.51346064815</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27276,10 +26564,8 @@
           <t>4328020144</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:52</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44283.5124074074</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27339,10 +26625,8 @@
           <t>4328015872</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:32</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44283.51217592593</v>
       </c>
       <c r="I367" t="n">
         <v>68</v>
@@ -27410,10 +26694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:12</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44283.51125</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27473,10 +26755,8 @@
           <t>4328003400</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:07</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44283.51119212963</v>
       </c>
       <c r="I369" t="n">
         <v>12</v>
@@ -27544,10 +26824,8 @@
           <t>4328002444</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:36</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44283.51083333333</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27624,10 +26902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:55</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44283.51035879629</v>
       </c>
       <c r="I371" t="n">
         <v>9</v>
@@ -27710,10 +26986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:51</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44283.5103125</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27785,10 +27059,8 @@
           <t>4328000302</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:24</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44283.51</v>
       </c>
       <c r="I373" t="n">
         <v>18</v>
@@ -27865,10 +27137,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:08</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44283.50981481482</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27944,10 +27214,8 @@
           <t>4327993645</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:05</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44283.50978009259</v>
       </c>
       <c r="I375" t="n">
         <v>30</v>
@@ -28011,10 +27279,8 @@
           <t>4327989279</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:47</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44283.50957175926</v>
       </c>
       <c r="I376" t="n">
         <v>52</v>
@@ -28078,10 +27344,8 @@
           <t>4327988732</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:29</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44283.50936342592</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28149,10 +27413,8 @@
           <t>4327985078</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:20</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44283.50925925926</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -28220,10 +27482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:19</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44283.50924768519</v>
       </c>
       <c r="I379" t="n">
         <v>15</v>
@@ -28287,10 +27547,8 @@
           <t>4327983378</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:10</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44283.50914351852</v>
       </c>
       <c r="I380" t="n">
         <v>45</v>
@@ -28362,10 +27620,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:27</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44283.50864583333</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28441,10 +27697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:36</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44283.50805555555</v>
       </c>
       <c r="I382" t="n">
         <v>13</v>
@@ -28512,10 +27766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:36</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44283.50805555555</v>
       </c>
       <c r="I383" t="n">
         <v>25</v>
@@ -28580,10 +27832,8 @@
           <t>4327980306</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:28</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44283.50796296296</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28659,10 +27909,8 @@
           <t>4327985078</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:23</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44283.50790509259</v>
       </c>
       <c r="I385" t="n">
         <v>45</v>
@@ -28738,10 +27986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:14</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44283.50710648148</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28813,10 +28059,8 @@
           <t>4327968098</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:13</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44283.50709490741</v>
       </c>
       <c r="I387" t="n">
         <v>25</v>
@@ -28880,10 +28124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:12</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44283.50708333333</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28947,10 +28189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:59</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44283.50693287037</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29018,10 +28258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:57</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44283.50690972222</v>
       </c>
       <c r="I390" t="n">
         <v>15</v>
@@ -29085,10 +28323,8 @@
           <t>4327967633</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:56</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44283.50689814815</v>
       </c>
       <c r="I391" t="n">
         <v>126</v>
@@ -29152,10 +28388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:37</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44283.5059837963</v>
       </c>
       <c r="I392" t="n">
         <v>503</v>
@@ -29223,10 +28457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:30</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44283.50590277778</v>
       </c>
       <c r="I393" t="n">
         <v>123</v>
@@ -29302,10 +28534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:15</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44283.50572916667</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29377,10 +28607,8 @@
           <t>4327952426</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:58</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44283.50483796297</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29457,10 +28685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:50</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44283.50474537037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29524,10 +28750,8 @@
           <t>4327955954</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:20</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44283.50439814815</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29591,10 +28815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:13</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44283.50431712963</v>
       </c>
       <c r="I398" t="n">
         <v>6</v>
@@ -29670,10 +28892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:12</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44283.50430555556</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29750,10 +28970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:09</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44283.50427083333</v>
       </c>
       <c r="I400" t="n">
         <v>1109</v>
@@ -29821,10 +29039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:29</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44283.50380787037</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29900,10 +29116,8 @@
           <t>4327944334</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:29</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44283.50380787037</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29979,10 +29193,8 @@
           <t>4327939573</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44283.50371527778</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30050,10 +29262,8 @@
           <t>4327937420</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:14</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44283.50363425926</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30117,10 +29327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:00</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44283.50347222222</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30188,10 +29396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:04:45</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44283.50329861111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30267,10 +29473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:04:41</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44283.50325231482</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -30339,10 +29543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:04:20</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44283.50300925926</v>
       </c>
       <c r="I408" t="n">
         <v>10</v>
@@ -30421,10 +29623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:04:14</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44283.50293981482</v>
       </c>
       <c r="I409" t="n">
         <v>9</v>
@@ -30502,10 +29702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:54</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44283.50270833333</v>
       </c>
       <c r="I410" t="n">
         <v>18</v>
@@ -30569,10 +29767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:49</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44283.50265046296</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30651,10 +29847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:43</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44283.50258101852</v>
       </c>
       <c r="I412" t="n">
         <v>10</v>
@@ -30730,10 +29924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:27</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44283.50239583333</v>
       </c>
       <c r="I413" t="n">
         <v>82</v>
@@ -30805,10 +29997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:02</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44283.50210648148</v>
       </c>
       <c r="I414" t="n">
         <v>13</v>
@@ -30872,10 +30062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:00</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44283.50208333333</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30943,10 +30131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:00</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44283.50208333333</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31010,10 +30196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:54</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44283.50201388889</v>
       </c>
       <c r="I417" t="n">
         <v>8</v>
@@ -31081,10 +30265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:49</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44283.50195601852</v>
       </c>
       <c r="I418" t="n">
         <v>4</v>
@@ -31155,10 +30337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44283.50167824074</v>
       </c>
       <c r="I419" t="n">
         <v>316</v>
@@ -31234,10 +30414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:16</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44283.50157407407</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31309,10 +30487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:12</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44283.50152777778</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31384,10 +30560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:11</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44283.5015162037</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31451,10 +30625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:06</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44283.50145833333</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31518,10 +30690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:27</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44283.50100694445</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31585,10 +30755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:23</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44283.50096064815</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31652,10 +30820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:14</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44283.50085648148</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31727,10 +30893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:09</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44283.50079861111</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31790,10 +30954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:05</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44283.50075231482</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31869,10 +31031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:05</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44283.50075231482</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31948,10 +31108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:04</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44283.50074074074</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32011,10 +31169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:02</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44283.50071759259</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -32086,10 +31242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:54</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44283.500625</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32157,10 +31311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:46</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44283.50053240741</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32220,10 +31372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:46</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44283.50053240741</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32295,10 +31445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:45</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44283.50052083333</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32370,10 +31518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:42</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44283.50048611111</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32445,10 +31591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:34</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44283.50039351852</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32524,10 +31668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:31</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44283.50035879629</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32591,10 +31733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:25</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44283.50028935185</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32667,10 +31807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:23</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44283.5002662037</v>
       </c>
       <c r="I440" t="n">
         <v>3</v>
